--- a/dataset/hf.xlsx
+++ b/dataset/hf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TCS Inframind\Restaurant\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\Business-Analytics-with-People-Counter\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CF738-C976-4F0A-A731-3C816111D2DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A4C8F-CD56-48B2-87B4-1F2EE973BC20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD289"/>
+  <dimension ref="A1:AD337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27577,6 +27577,534 @@
         <v>125030.2</v>
       </c>
     </row>
+    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>2021</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>2021</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>2021</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>2021</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>2021</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>2021</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>2021</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>2021</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>2021</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>2021</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>2021</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>2021</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>2021</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>2021</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>2021</v>
+      </c>
+      <c r="B304">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>2021</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+      <c r="C305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>2021</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>2021</v>
+      </c>
+      <c r="B307">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>2021</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>2021</v>
+      </c>
+      <c r="B309">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>2021</v>
+      </c>
+      <c r="B310">
+        <v>6</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>2021</v>
+      </c>
+      <c r="B311">
+        <v>6</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>2021</v>
+      </c>
+      <c r="B312">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>2021</v>
+      </c>
+      <c r="B313">
+        <v>6</v>
+      </c>
+      <c r="C313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>2021</v>
+      </c>
+      <c r="B314">
+        <v>7</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>2021</v>
+      </c>
+      <c r="B315">
+        <v>7</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>2021</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>2021</v>
+      </c>
+      <c r="B317">
+        <v>7</v>
+      </c>
+      <c r="C317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>2021</v>
+      </c>
+      <c r="B318">
+        <v>8</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>2021</v>
+      </c>
+      <c r="B319">
+        <v>8</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>2021</v>
+      </c>
+      <c r="B320">
+        <v>8</v>
+      </c>
+      <c r="C320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>2021</v>
+      </c>
+      <c r="B321">
+        <v>8</v>
+      </c>
+      <c r="C321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>2021</v>
+      </c>
+      <c r="B322">
+        <v>9</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>2021</v>
+      </c>
+      <c r="B323">
+        <v>9</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>2021</v>
+      </c>
+      <c r="B324">
+        <v>9</v>
+      </c>
+      <c r="C324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>2021</v>
+      </c>
+      <c r="B325">
+        <v>9</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>2021</v>
+      </c>
+      <c r="B326">
+        <v>10</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>2021</v>
+      </c>
+      <c r="B327">
+        <v>10</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>2021</v>
+      </c>
+      <c r="B328">
+        <v>10</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>2021</v>
+      </c>
+      <c r="B329">
+        <v>10</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>2021</v>
+      </c>
+      <c r="B330">
+        <v>11</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>2021</v>
+      </c>
+      <c r="B331">
+        <v>11</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>2021</v>
+      </c>
+      <c r="B332">
+        <v>11</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>2021</v>
+      </c>
+      <c r="B333">
+        <v>11</v>
+      </c>
+      <c r="C333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>2021</v>
+      </c>
+      <c r="B334">
+        <v>12</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>2021</v>
+      </c>
+      <c r="B335">
+        <v>12</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>2021</v>
+      </c>
+      <c r="B336">
+        <v>12</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>2021</v>
+      </c>
+      <c r="B337">
+        <v>12</v>
+      </c>
+      <c r="C337">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
